--- a/target/test-classes/com/MarshPanel/TestData/LoginData.xlsx
+++ b/target/test-classes/com/MarshPanel/TestData/LoginData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -34,18 +34,6 @@
   </si>
   <si>
     <t>Test@123</t>
-  </si>
-  <si>
-    <t>TeDe59@gm.com</t>
-  </si>
-  <si>
-    <t>TeDe58@gm.com</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>TeDe53@gm.com</t>
   </si>
   <si>
     <t>TeDe57@gm.com</t>
@@ -114,14 +102,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,9 +390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -423,33 +412,9 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -457,8 +422,6 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2" display="TeDe54@gm.com"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
